--- a/Code/Results/Cases/Case_1_172/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_172/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.972182309891329</v>
+        <v>1.015361888628558</v>
       </c>
       <c r="D2">
-        <v>1.034214209875018</v>
+        <v>1.041704795992847</v>
       </c>
       <c r="E2">
-        <v>0.982405690254725</v>
+        <v>1.017020978142064</v>
       </c>
       <c r="F2">
-        <v>1.023203855413611</v>
+        <v>1.044291753189057</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.053883695235478</v>
+        <v>1.035564276191011</v>
       </c>
       <c r="J2">
-        <v>0.9952281162938826</v>
+        <v>1.020587840857214</v>
       </c>
       <c r="K2">
-        <v>1.045216608951165</v>
+        <v>1.044483556421065</v>
       </c>
       <c r="L2">
-        <v>0.9941157085512763</v>
+        <v>1.019871410994297</v>
       </c>
       <c r="M2">
-        <v>1.034349118363881</v>
+        <v>1.047063215003973</v>
       </c>
       <c r="N2">
-        <v>0.9966414543732804</v>
+        <v>1.022037192654292</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9775303438471887</v>
+        <v>1.016474986687234</v>
       </c>
       <c r="D3">
-        <v>1.037711041601073</v>
+        <v>1.042363082314531</v>
       </c>
       <c r="E3">
-        <v>0.9867042344568114</v>
+        <v>1.017969114421507</v>
       </c>
       <c r="F3">
-        <v>1.027798121967358</v>
+        <v>1.045218406810522</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.055171153618216</v>
+        <v>1.035701585341233</v>
       </c>
       <c r="J3">
-        <v>0.9986528781480591</v>
+        <v>1.021335056822347</v>
       </c>
       <c r="K3">
-        <v>1.047883110720579</v>
+        <v>1.044952924848954</v>
       </c>
       <c r="L3">
-        <v>0.997510112107989</v>
+        <v>1.020624658204479</v>
       </c>
       <c r="M3">
-        <v>1.038087258672534</v>
+        <v>1.047800775570264</v>
       </c>
       <c r="N3">
-        <v>1.000071079782116</v>
+        <v>1.022785469751803</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9809098227733821</v>
+        <v>1.017195233574475</v>
       </c>
       <c r="D4">
-        <v>1.039909791701489</v>
+        <v>1.042786665199454</v>
       </c>
       <c r="E4">
-        <v>0.9894275369863764</v>
+        <v>1.018583001531386</v>
       </c>
       <c r="F4">
-        <v>1.030693191653024</v>
+        <v>1.045815961134104</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.055963257514279</v>
+        <v>1.03578756399172</v>
       </c>
       <c r="J4">
-        <v>1.000814792609316</v>
+        <v>1.021818058415389</v>
       </c>
       <c r="K4">
-        <v>1.049549268571984</v>
+        <v>1.04525358740827</v>
       </c>
       <c r="L4">
-        <v>0.9996552596792745</v>
+        <v>1.02111182495809</v>
       </c>
       <c r="M4">
-        <v>1.040434769249534</v>
+        <v>1.048275353119529</v>
       </c>
       <c r="N4">
-        <v>1.002236064409883</v>
+        <v>1.023269157262509</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9823119765186312</v>
+        <v>1.017498025608986</v>
       </c>
       <c r="D5">
-        <v>1.040819248286045</v>
+        <v>1.042964169568221</v>
       </c>
       <c r="E5">
-        <v>0.9905590574214039</v>
+        <v>1.018841170411531</v>
       </c>
       <c r="F5">
-        <v>1.031892245064193</v>
+        <v>1.046066680028387</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.05628663822148</v>
+        <v>1.035823021322691</v>
       </c>
       <c r="J5">
-        <v>1.001711192354851</v>
+        <v>1.02202099329375</v>
       </c>
       <c r="K5">
-        <v>1.050235878499572</v>
+        <v>1.045379253997942</v>
       </c>
       <c r="L5">
-        <v>1.000545279340503</v>
+        <v>1.021316573666522</v>
       </c>
       <c r="M5">
-        <v>1.041405068075353</v>
+        <v>1.048474223851199</v>
       </c>
       <c r="N5">
-        <v>1.003133737145874</v>
+        <v>1.023472380331674</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9825463378834225</v>
+        <v>1.017548865758957</v>
       </c>
       <c r="D6">
-        <v>1.040971087834549</v>
+        <v>1.042993939858121</v>
       </c>
       <c r="E6">
-        <v>0.9907482772539904</v>
+        <v>1.018884523419759</v>
       </c>
       <c r="F6">
-        <v>1.032092529959512</v>
+        <v>1.046108747881133</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.056340376395025</v>
+        <v>1.035828934381359</v>
       </c>
       <c r="J6">
-        <v>1.001860984349223</v>
+        <v>1.022055059975336</v>
       </c>
       <c r="K6">
-        <v>1.050350361100597</v>
+        <v>1.045400310998255</v>
       </c>
       <c r="L6">
-        <v>1.000694038749734</v>
+        <v>1.021350948578964</v>
       </c>
       <c r="M6">
-        <v>1.041567025778507</v>
+        <v>1.048507577445663</v>
       </c>
       <c r="N6">
-        <v>1.003283741862059</v>
+        <v>1.023506495391855</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9809286303680548</v>
+        <v>1.017199279494635</v>
       </c>
       <c r="D7">
-        <v>1.03992200192017</v>
+        <v>1.0427890392633</v>
       </c>
       <c r="E7">
-        <v>0.9894427081756517</v>
+        <v>1.018586450840242</v>
       </c>
       <c r="F7">
-        <v>1.030709283587777</v>
+        <v>1.045819313191293</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.055967616101339</v>
+        <v>1.035788040479538</v>
       </c>
       <c r="J7">
-        <v>1.000826818713176</v>
+        <v>1.021820770508741</v>
       </c>
       <c r="K7">
-        <v>1.049558497043066</v>
+        <v>1.045255269449767</v>
       </c>
       <c r="L7">
-        <v>0.9996671979299619</v>
+        <v>1.021114561041246</v>
       </c>
       <c r="M7">
-        <v>1.040447799021924</v>
+        <v>1.048278012963522</v>
       </c>
       <c r="N7">
-        <v>1.00224810759219</v>
+        <v>1.023271873207344</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9740070000524221</v>
+        <v>1.01573806617565</v>
       </c>
       <c r="D8">
-        <v>1.035409471908773</v>
+        <v>1.041927757013698</v>
       </c>
       <c r="E8">
-        <v>0.9838707923836141</v>
+        <v>1.017341326580438</v>
       </c>
       <c r="F8">
-        <v>1.024772960215743</v>
+        <v>1.044605344184342</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.054327397612453</v>
+        <v>1.035611273957948</v>
       </c>
       <c r="J8">
-        <v>0.9963970449849313</v>
+        <v>1.020840468932048</v>
       </c>
       <c r="K8">
-        <v>1.046130245361039</v>
+        <v>1.04464281221901</v>
       </c>
       <c r="L8">
-        <v>0.9952737692752237</v>
+        <v>1.020126022961283</v>
       </c>
       <c r="M8">
-        <v>1.035627504400247</v>
+        <v>1.047313029636325</v>
       </c>
       <c r="N8">
-        <v>0.9978120430771484</v>
+        <v>1.02229017948997</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9611494823183905</v>
+        <v>1.013163173367252</v>
       </c>
       <c r="D9">
-        <v>1.026948514852518</v>
+        <v>1.0403919803563</v>
       </c>
       <c r="E9">
-        <v>0.9735799075375704</v>
+        <v>1.015150169801688</v>
       </c>
       <c r="F9">
-        <v>1.013689434589044</v>
+        <v>1.042450522007422</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.051114244633347</v>
+        <v>1.035277859211897</v>
       </c>
       <c r="J9">
-        <v>0.9881529006826735</v>
+        <v>1.019109243379077</v>
       </c>
       <c r="K9">
-        <v>1.039618994566676</v>
+        <v>1.04354029717974</v>
       </c>
       <c r="L9">
-        <v>0.9871166878694891</v>
+        <v>1.018382296988801</v>
       </c>
       <c r="M9">
-        <v>1.026564247166599</v>
+        <v>1.045592199946406</v>
       </c>
       <c r="N9">
-        <v>0.9895561911443643</v>
+        <v>1.020556495398139</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9520729706265481</v>
+        <v>1.01144649612085</v>
       </c>
       <c r="D10">
-        <v>1.020935822538249</v>
+        <v>1.039356074893612</v>
       </c>
       <c r="E10">
-        <v>0.9663606151963567</v>
+        <v>1.013691358524289</v>
       </c>
       <c r="F10">
-        <v>1.005839821734904</v>
+        <v>1.041003533014096</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.048741225237057</v>
+        <v>1.035040900391772</v>
       </c>
       <c r="J10">
-        <v>0.9823261903502801</v>
+        <v>1.017952526347473</v>
       </c>
       <c r="K10">
-        <v>1.034937090177344</v>
+        <v>1.042789725306543</v>
       </c>
       <c r="L10">
-        <v>0.981365014874885</v>
+        <v>1.017218603765839</v>
       </c>
       <c r="M10">
-        <v>1.020104430888009</v>
+        <v>1.044431349294173</v>
       </c>
       <c r="N10">
-        <v>0.9837212062149663</v>
+        <v>1.019398135695673</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.948007909519609</v>
+        <v>1.010703124368803</v>
       </c>
       <c r="D11">
-        <v>1.018236719288803</v>
+        <v>1.038904678375257</v>
       </c>
       <c r="E11">
-        <v>0.9631393367337329</v>
+        <v>1.013060141440473</v>
       </c>
       <c r="F11">
-        <v>1.002321307371644</v>
+        <v>1.040374510338154</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.047655482211935</v>
+        <v>1.034934824425467</v>
       </c>
       <c r="J11">
-        <v>0.9797158250262388</v>
+        <v>1.017451044015562</v>
       </c>
       <c r="K11">
-        <v>1.032822722109328</v>
+        <v>1.042461047100394</v>
       </c>
       <c r="L11">
-        <v>0.9787915587437581</v>
+        <v>1.016714423503887</v>
       </c>
       <c r="M11">
-        <v>1.017199579607651</v>
+        <v>1.043925472254111</v>
       </c>
       <c r="N11">
-        <v>0.9811071338727515</v>
+        <v>1.01889594120133</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9464762787648594</v>
+        <v>1.010426995955761</v>
       </c>
       <c r="D12">
-        <v>1.017219113871569</v>
+        <v>1.038736584103404</v>
       </c>
       <c r="E12">
-        <v>0.9619275419830866</v>
+        <v>1.012825747931026</v>
       </c>
       <c r="F12">
-        <v>1.000995446562844</v>
+        <v>1.040140493796799</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.047243122210124</v>
+        <v>1.034894902470563</v>
       </c>
       <c r="J12">
-        <v>0.9787322552462956</v>
+        <v>1.017264678257183</v>
       </c>
       <c r="K12">
-        <v>1.032023694591164</v>
+        <v>1.042338410531007</v>
       </c>
       <c r="L12">
-        <v>0.9778223993367907</v>
+        <v>1.016527104193967</v>
       </c>
       <c r="M12">
-        <v>1.016103600204847</v>
+        <v>1.043737084287566</v>
       </c>
       <c r="N12">
-        <v>0.980122167310904</v>
+        <v>1.018709310782197</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9468058243831654</v>
+        <v>1.010486226775244</v>
       </c>
       <c r="D13">
-        <v>1.017438085726593</v>
+        <v>1.038772660125743</v>
       </c>
       <c r="E13">
-        <v>0.9621881832411997</v>
+        <v>1.012876023031964</v>
       </c>
       <c r="F13">
-        <v>1.001280721061337</v>
+        <v>1.040190707843146</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.047331990569305</v>
+        <v>1.034903489410374</v>
       </c>
       <c r="J13">
-        <v>0.97894388048749</v>
+        <v>1.01730465855364</v>
       </c>
       <c r="K13">
-        <v>1.032195716475395</v>
+        <v>1.04236474139694</v>
       </c>
       <c r="L13">
-        <v>0.9780309011624893</v>
+        <v>1.016567286830804</v>
       </c>
       <c r="M13">
-        <v>1.016339473948449</v>
+        <v>1.043777515970451</v>
       </c>
       <c r="N13">
-        <v>0.9803340930842149</v>
+        <v>1.018749347855262</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9478817555245019</v>
+        <v>1.010680299658511</v>
       </c>
       <c r="D14">
-        <v>1.01815291461142</v>
+        <v>1.038890792321634</v>
       </c>
       <c r="E14">
-        <v>0.9630394866881381</v>
+        <v>1.013040765001003</v>
       </c>
       <c r="F14">
-        <v>1.002212103273689</v>
+        <v>1.040355173989527</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.047621583315663</v>
+        <v>1.034931535079593</v>
       </c>
       <c r="J14">
-        <v>0.9796348128158058</v>
+        <v>1.01743564086064</v>
       </c>
       <c r="K14">
-        <v>1.032756956339926</v>
+        <v>1.042450921152694</v>
       </c>
       <c r="L14">
-        <v>0.9787117231787588</v>
+        <v>1.016698940536606</v>
       </c>
       <c r="M14">
-        <v>1.017109337064879</v>
+        <v>1.043909909886294</v>
       </c>
       <c r="N14">
-        <v>0.9810260066156881</v>
+        <v>1.018880516172161</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9485417538256118</v>
+        <v>1.010799873398642</v>
       </c>
       <c r="D15">
-        <v>1.018591330288303</v>
+        <v>1.03896352112863</v>
       </c>
       <c r="E15">
-        <v>0.9635619496612413</v>
+        <v>1.013142277053138</v>
       </c>
       <c r="F15">
-        <v>1.002783420333548</v>
+        <v>1.040456458078847</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.047798799478282</v>
+        <v>1.034948745981392</v>
       </c>
       <c r="J15">
-        <v>0.9800586423243302</v>
+        <v>1.017516331064394</v>
       </c>
       <c r="K15">
-        <v>1.033100927040505</v>
+        <v>1.042503946391926</v>
       </c>
       <c r="L15">
-        <v>0.979129417404358</v>
+        <v>1.016780050851081</v>
       </c>
       <c r="M15">
-        <v>1.017581398772294</v>
+        <v>1.043991418219265</v>
       </c>
       <c r="N15">
-        <v>0.9814504380107278</v>
+        <v>1.018961320965259</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.952339795198251</v>
+        <v>1.011495830331587</v>
       </c>
       <c r="D16">
-        <v>1.021112882785681</v>
+        <v>1.039385972837828</v>
       </c>
       <c r="E16">
-        <v>0.9665723138825423</v>
+        <v>1.013733259955474</v>
       </c>
       <c r="F16">
-        <v>1.006070734170531</v>
+        <v>1.041045227298688</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.048812029180975</v>
+        <v>1.035047867246486</v>
       </c>
       <c r="J16">
-        <v>0.9824975211724983</v>
+        <v>1.017985795068798</v>
       </c>
       <c r="K16">
-        <v>1.035075531248463</v>
+        <v>1.042811461273478</v>
       </c>
       <c r="L16">
-        <v>0.9815339922982554</v>
+        <v>1.017252058348014</v>
       </c>
       <c r="M16">
-        <v>1.020294879690212</v>
+        <v>1.044464854928347</v>
       </c>
       <c r="N16">
-        <v>0.9838927803466041</v>
+        <v>1.019431451662399</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9546851323363778</v>
+        <v>1.011932374424469</v>
       </c>
       <c r="D17">
-        <v>1.022668536324728</v>
+        <v>1.039650205704154</v>
       </c>
       <c r="E17">
-        <v>0.9684344793028038</v>
+        <v>1.014104090378024</v>
       </c>
       <c r="F17">
-        <v>1.008100109271557</v>
+        <v>1.041413887016669</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.049431798287568</v>
+        <v>1.035109114690814</v>
       </c>
       <c r="J17">
-        <v>0.9840034069889841</v>
+        <v>1.018280112238991</v>
       </c>
       <c r="K17">
-        <v>1.036290444764707</v>
+        <v>1.043003374146862</v>
       </c>
       <c r="L17">
-        <v>0.9830195677867333</v>
+        <v>1.017548057465723</v>
       </c>
       <c r="M17">
-        <v>1.021967589340811</v>
+        <v>1.044760967775536</v>
       </c>
       <c r="N17">
-        <v>0.985400804693677</v>
+        <v>1.019726186796731</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9560402173741466</v>
+        <v>1.012186999506456</v>
       </c>
       <c r="D18">
-        <v>1.023566750560648</v>
+        <v>1.039804053890893</v>
       </c>
       <c r="E18">
-        <v>0.9695115246981028</v>
+        <v>1.014320433674561</v>
       </c>
       <c r="F18">
-        <v>1.009272340742651</v>
+        <v>1.041628681901487</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.049787705780637</v>
+        <v>1.035144504306636</v>
       </c>
       <c r="J18">
-        <v>0.9848733960590886</v>
+        <v>1.018451723029651</v>
       </c>
       <c r="K18">
-        <v>1.036990723312941</v>
+        <v>1.043114958944169</v>
       </c>
       <c r="L18">
-        <v>0.9838781337226965</v>
+        <v>1.017720680448554</v>
       </c>
       <c r="M18">
-        <v>1.02293291819795</v>
+        <v>1.044933374525994</v>
       </c>
       <c r="N18">
-        <v>0.98627202924805</v>
+        <v>1.019898041294399</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9565001176561595</v>
+        <v>1.012273819486611</v>
       </c>
       <c r="D19">
-        <v>1.023871482427787</v>
+        <v>1.039856465559965</v>
       </c>
       <c r="E19">
-        <v>0.9698772493646818</v>
+        <v>1.014394208647224</v>
       </c>
       <c r="F19">
-        <v>1.009670124039841</v>
+        <v>1.041701880987541</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.049908121639402</v>
+        <v>1.035156514404632</v>
       </c>
       <c r="J19">
-        <v>0.9851686446598625</v>
+        <v>1.018510227802512</v>
       </c>
       <c r="K19">
-        <v>1.037228098923352</v>
+        <v>1.043152946264847</v>
       </c>
       <c r="L19">
-        <v>0.9841695581071137</v>
+        <v>1.01777953563231</v>
       </c>
       <c r="M19">
-        <v>1.023260340911588</v>
+        <v>1.044992108007026</v>
       </c>
       <c r="N19">
-        <v>0.9865676971357024</v>
+        <v>1.019956629150747</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.954434845118092</v>
+        <v>1.011885537765719</v>
       </c>
       <c r="D20">
-        <v>1.02250258288594</v>
+        <v>1.039621884386461</v>
       </c>
       <c r="E20">
-        <v>0.9682356369666408</v>
+        <v>1.014064299213926</v>
       </c>
       <c r="F20">
-        <v>1.00788356949358</v>
+        <v>1.041374357936451</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.049365883711749</v>
+        <v>1.035102578061837</v>
       </c>
       <c r="J20">
-        <v>0.9838427111275231</v>
+        <v>1.018248540941755</v>
       </c>
       <c r="K20">
-        <v>1.036160964761055</v>
+        <v>1.042982820393501</v>
       </c>
       <c r="L20">
-        <v>0.9828610069677105</v>
+        <v>1.01751630248984</v>
       </c>
       <c r="M20">
-        <v>1.021789197975376</v>
+        <v>1.044729229814383</v>
       </c>
       <c r="N20">
-        <v>0.9852398806256605</v>
+        <v>1.019694570664632</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9475655313460015</v>
+        <v>1.010623150235381</v>
       </c>
       <c r="D21">
-        <v>1.01794283619026</v>
+        <v>1.038856017068035</v>
       </c>
       <c r="E21">
-        <v>0.9627892286094736</v>
+        <v>1.012992250704301</v>
       </c>
       <c r="F21">
-        <v>1.001938365057756</v>
+        <v>1.040306753000278</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.047536558469339</v>
+        <v>1.034923290693576</v>
       </c>
       <c r="J21">
-        <v>0.9794317430497504</v>
+        <v>1.017397072402693</v>
       </c>
       <c r="K21">
-        <v>1.032592067048815</v>
+        <v>1.042425558557925</v>
       </c>
       <c r="L21">
-        <v>0.9785116109900214</v>
+        <v>1.016660173026744</v>
       </c>
       <c r="M21">
-        <v>1.016883107338864</v>
+        <v>1.043870936493513</v>
       </c>
       <c r="N21">
-        <v>0.980822648467272</v>
+        <v>1.018841892942581</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9431202492644906</v>
+        <v>1.009829395746507</v>
       </c>
       <c r="D22">
-        <v>1.014988557796175</v>
+        <v>1.038372024779683</v>
       </c>
       <c r="E22">
-        <v>0.9592759812851253</v>
+        <v>1.01231860818597</v>
       </c>
       <c r="F22">
-        <v>0.998090331836368</v>
+        <v>1.039633370036965</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.046333752956801</v>
+        <v>1.034807553897528</v>
       </c>
       <c r="J22">
-        <v>0.976577130021285</v>
+        <v>1.016861182732721</v>
       </c>
       <c r="K22">
-        <v>1.030268823549992</v>
+        <v>1.04207199952811</v>
       </c>
       <c r="L22">
-        <v>0.9756997857470735</v>
+        <v>1.016121633957894</v>
       </c>
       <c r="M22">
-        <v>1.013699714788818</v>
+        <v>1.04332850117722</v>
       </c>
       <c r="N22">
-        <v>0.9779639815608777</v>
+        <v>1.01830524224781</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9454892566993763</v>
+        <v>1.01025018432808</v>
       </c>
       <c r="D23">
-        <v>1.016563201468704</v>
+        <v>1.038628831023549</v>
       </c>
       <c r="E23">
-        <v>0.961147185415663</v>
+        <v>1.012675681263341</v>
       </c>
       <c r="F23">
-        <v>1.000141020854559</v>
+        <v>1.039990545325519</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.046976486601052</v>
+        <v>1.034869193346684</v>
       </c>
       <c r="J23">
-        <v>0.9780984172662509</v>
+        <v>1.017145319051569</v>
       </c>
       <c r="K23">
-        <v>1.031508143735455</v>
+        <v>1.042259729446253</v>
       </c>
       <c r="L23">
-        <v>0.9771979907483935</v>
+        <v>1.016407148099718</v>
       </c>
       <c r="M23">
-        <v>1.015396937877191</v>
+        <v>1.043616320679596</v>
       </c>
       <c r="N23">
-        <v>0.9794874292082256</v>
+        <v>1.018589782072821</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9545479789306242</v>
+        <v>1.01190670124677</v>
       </c>
       <c r="D24">
-        <v>1.022577598396474</v>
+        <v>1.039634682418583</v>
       </c>
       <c r="E24">
-        <v>0.9683255133856878</v>
+        <v>1.014082278991466</v>
       </c>
       <c r="F24">
-        <v>1.007981449869508</v>
+        <v>1.041392220161782</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.049395684932708</v>
+        <v>1.035105532718125</v>
       </c>
       <c r="J24">
-        <v>0.9839153484700962</v>
+        <v>1.018262806835422</v>
       </c>
       <c r="K24">
-        <v>1.036219496993811</v>
+        <v>1.042992108845935</v>
       </c>
       <c r="L24">
-        <v>0.9829326782704358</v>
+        <v>1.017530651283789</v>
       </c>
       <c r="M24">
-        <v>1.02186983723179</v>
+        <v>1.044743571793256</v>
       </c>
       <c r="N24">
-        <v>0.9853126211215915</v>
+        <v>1.019708856817505</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9645576922372541</v>
+        <v>1.013828855669083</v>
       </c>
       <c r="D25">
-        <v>1.029199143373134</v>
+        <v>1.040791147712637</v>
       </c>
       <c r="E25">
-        <v>0.9763003651482122</v>
+        <v>1.015716291050341</v>
       </c>
       <c r="F25">
-        <v>1.016632718871886</v>
+        <v>1.043009441419247</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.051984540703707</v>
+        <v>1.035366647194016</v>
       </c>
       <c r="J25">
-        <v>0.9903396732779686</v>
+        <v>1.019557258608816</v>
       </c>
       <c r="K25">
-        <v>1.041360480283095</v>
+        <v>1.043828073412688</v>
       </c>
       <c r="L25">
-        <v>0.9892780773159381</v>
+        <v>1.018833304901897</v>
       </c>
       <c r="M25">
-        <v>1.028978205865495</v>
+        <v>1.046039484524055</v>
       </c>
       <c r="N25">
-        <v>0.9917460692075716</v>
+        <v>1.021005146860893</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_172/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_172/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C2">
-        <v>1.015361888628558</v>
+        <v>0.9721823098913288</v>
       </c>
       <c r="D2">
-        <v>1.041704795992847</v>
+        <v>1.034214209875018</v>
       </c>
       <c r="E2">
-        <v>1.017020978142064</v>
+        <v>0.9824056902547247</v>
       </c>
       <c r="F2">
-        <v>1.044291753189057</v>
+        <v>1.02320385541361</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035564276191011</v>
+        <v>1.053883695235478</v>
       </c>
       <c r="J2">
-        <v>1.020587840857214</v>
+        <v>0.9952281162938823</v>
       </c>
       <c r="K2">
-        <v>1.044483556421065</v>
+        <v>1.045216608951165</v>
       </c>
       <c r="L2">
-        <v>1.019871410994297</v>
+        <v>0.9941157085512757</v>
       </c>
       <c r="M2">
-        <v>1.047063215003973</v>
+        <v>1.03434911836388</v>
       </c>
       <c r="N2">
-        <v>1.022037192654292</v>
+        <v>0.99664145437328</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.016474986687234</v>
+        <v>0.9775303438471887</v>
       </c>
       <c r="D3">
-        <v>1.042363082314531</v>
+        <v>1.037711041601073</v>
       </c>
       <c r="E3">
-        <v>1.017969114421507</v>
+        <v>0.9867042344568118</v>
       </c>
       <c r="F3">
-        <v>1.045218406810522</v>
+        <v>1.027798121967358</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.035701585341233</v>
+        <v>1.055171153618216</v>
       </c>
       <c r="J3">
-        <v>1.021335056822347</v>
+        <v>0.9986528781480595</v>
       </c>
       <c r="K3">
-        <v>1.044952924848954</v>
+        <v>1.047883110720579</v>
       </c>
       <c r="L3">
-        <v>1.020624658204479</v>
+        <v>0.9975101121079895</v>
       </c>
       <c r="M3">
-        <v>1.047800775570264</v>
+        <v>1.038087258672534</v>
       </c>
       <c r="N3">
-        <v>1.022785469751803</v>
+        <v>1.000071079782116</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.017195233574475</v>
+        <v>0.9809098227733825</v>
       </c>
       <c r="D4">
-        <v>1.042786665199454</v>
+        <v>1.039909791701489</v>
       </c>
       <c r="E4">
-        <v>1.018583001531386</v>
+        <v>0.9894275369863766</v>
       </c>
       <c r="F4">
-        <v>1.045815961134104</v>
+        <v>1.030693191653024</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.03578756399172</v>
+        <v>1.055963257514279</v>
       </c>
       <c r="J4">
-        <v>1.021818058415389</v>
+        <v>1.000814792609317</v>
       </c>
       <c r="K4">
-        <v>1.04525358740827</v>
+        <v>1.049549268571984</v>
       </c>
       <c r="L4">
-        <v>1.02111182495809</v>
+        <v>0.9996552596792747</v>
       </c>
       <c r="M4">
-        <v>1.048275353119529</v>
+        <v>1.040434769249534</v>
       </c>
       <c r="N4">
-        <v>1.023269157262509</v>
+        <v>1.002236064409883</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.017498025608986</v>
+        <v>0.9823119765186318</v>
       </c>
       <c r="D5">
-        <v>1.042964169568221</v>
+        <v>1.040819248286045</v>
       </c>
       <c r="E5">
-        <v>1.018841170411531</v>
+        <v>0.9905590574214046</v>
       </c>
       <c r="F5">
-        <v>1.046066680028387</v>
+        <v>1.031892245064194</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.035823021322691</v>
+        <v>1.056286638221481</v>
       </c>
       <c r="J5">
-        <v>1.02202099329375</v>
+        <v>1.001711192354851</v>
       </c>
       <c r="K5">
-        <v>1.045379253997942</v>
+        <v>1.050235878499573</v>
       </c>
       <c r="L5">
-        <v>1.021316573666522</v>
+        <v>1.000545279340504</v>
       </c>
       <c r="M5">
-        <v>1.048474223851199</v>
+        <v>1.041405068075353</v>
       </c>
       <c r="N5">
-        <v>1.023472380331674</v>
+        <v>1.003133737145875</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.017548865758957</v>
+        <v>0.9825463378834226</v>
       </c>
       <c r="D6">
-        <v>1.042993939858121</v>
+        <v>1.040971087834549</v>
       </c>
       <c r="E6">
-        <v>1.018884523419759</v>
+        <v>0.9907482772539905</v>
       </c>
       <c r="F6">
-        <v>1.046108747881133</v>
+        <v>1.032092529959513</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.035828934381359</v>
+        <v>1.056340376395025</v>
       </c>
       <c r="J6">
-        <v>1.022055059975336</v>
+        <v>1.001860984349223</v>
       </c>
       <c r="K6">
-        <v>1.045400310998255</v>
+        <v>1.050350361100597</v>
       </c>
       <c r="L6">
-        <v>1.021350948578964</v>
+        <v>1.000694038749734</v>
       </c>
       <c r="M6">
-        <v>1.048507577445663</v>
+        <v>1.041567025778507</v>
       </c>
       <c r="N6">
-        <v>1.023506495391855</v>
+        <v>1.003283741862059</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C7">
-        <v>1.017199279494635</v>
+        <v>0.9809286303680553</v>
       </c>
       <c r="D7">
-        <v>1.0427890392633</v>
+        <v>1.039922001920169</v>
       </c>
       <c r="E7">
-        <v>1.018586450840242</v>
+        <v>0.9894427081756522</v>
       </c>
       <c r="F7">
-        <v>1.045819313191293</v>
+        <v>1.030709283587776</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.035788040479538</v>
+        <v>1.055967616101338</v>
       </c>
       <c r="J7">
-        <v>1.021820770508741</v>
+        <v>1.000826818713177</v>
       </c>
       <c r="K7">
-        <v>1.045255269449767</v>
+        <v>1.049558497043065</v>
       </c>
       <c r="L7">
-        <v>1.021114561041246</v>
+        <v>0.9996671979299623</v>
       </c>
       <c r="M7">
-        <v>1.048278012963522</v>
+        <v>1.040447799021923</v>
       </c>
       <c r="N7">
-        <v>1.023271873207344</v>
+        <v>1.00224810759219</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.01573806617565</v>
+        <v>0.974007000052422</v>
       </c>
       <c r="D8">
-        <v>1.041927757013698</v>
+        <v>1.035409471908773</v>
       </c>
       <c r="E8">
-        <v>1.017341326580438</v>
+        <v>0.983870792383614</v>
       </c>
       <c r="F8">
-        <v>1.044605344184342</v>
+        <v>1.024772960215743</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035611273957948</v>
+        <v>1.054327397612453</v>
       </c>
       <c r="J8">
-        <v>1.020840468932048</v>
+        <v>0.9963970449849314</v>
       </c>
       <c r="K8">
-        <v>1.04464281221901</v>
+        <v>1.046130245361039</v>
       </c>
       <c r="L8">
-        <v>1.020126022961283</v>
+        <v>0.9952737692752238</v>
       </c>
       <c r="M8">
-        <v>1.047313029636325</v>
+        <v>1.035627504400247</v>
       </c>
       <c r="N8">
-        <v>1.02229017948997</v>
+        <v>0.9978120430771485</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.013163173367252</v>
+        <v>0.9611494823183903</v>
       </c>
       <c r="D9">
-        <v>1.0403919803563</v>
+        <v>1.026948514852517</v>
       </c>
       <c r="E9">
-        <v>1.015150169801688</v>
+        <v>0.9735799075375702</v>
       </c>
       <c r="F9">
-        <v>1.042450522007422</v>
+        <v>1.013689434589044</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035277859211897</v>
+        <v>1.051114244633347</v>
       </c>
       <c r="J9">
-        <v>1.019109243379077</v>
+        <v>0.9881529006826733</v>
       </c>
       <c r="K9">
-        <v>1.04354029717974</v>
+        <v>1.039618994566676</v>
       </c>
       <c r="L9">
-        <v>1.018382296988801</v>
+        <v>0.9871166878694889</v>
       </c>
       <c r="M9">
-        <v>1.045592199946406</v>
+        <v>1.026564247166599</v>
       </c>
       <c r="N9">
-        <v>1.020556495398139</v>
+        <v>0.9895561911443642</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.01144649612085</v>
+        <v>0.9520729706265481</v>
       </c>
       <c r="D10">
-        <v>1.039356074893612</v>
+        <v>1.020935822538249</v>
       </c>
       <c r="E10">
-        <v>1.013691358524289</v>
+        <v>0.9663606151963569</v>
       </c>
       <c r="F10">
-        <v>1.041003533014096</v>
+        <v>1.005839821734904</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035040900391772</v>
+        <v>1.048741225237057</v>
       </c>
       <c r="J10">
-        <v>1.017952526347473</v>
+        <v>0.9823261903502802</v>
       </c>
       <c r="K10">
-        <v>1.042789725306543</v>
+        <v>1.034937090177344</v>
       </c>
       <c r="L10">
-        <v>1.017218603765839</v>
+        <v>0.9813650148748849</v>
       </c>
       <c r="M10">
-        <v>1.044431349294173</v>
+        <v>1.02010443088801</v>
       </c>
       <c r="N10">
-        <v>1.019398135695673</v>
+        <v>0.9837212062149665</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.010703124368803</v>
+        <v>0.948007909519609</v>
       </c>
       <c r="D11">
-        <v>1.038904678375257</v>
+        <v>1.018236719288804</v>
       </c>
       <c r="E11">
-        <v>1.013060141440473</v>
+        <v>0.9631393367337324</v>
       </c>
       <c r="F11">
-        <v>1.040374510338154</v>
+        <v>1.002321307371645</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034934824425467</v>
+        <v>1.047655482211936</v>
       </c>
       <c r="J11">
-        <v>1.017451044015562</v>
+        <v>0.9797158250262387</v>
       </c>
       <c r="K11">
-        <v>1.042461047100394</v>
+        <v>1.032822722109329</v>
       </c>
       <c r="L11">
-        <v>1.016714423503887</v>
+        <v>0.9787915587437578</v>
       </c>
       <c r="M11">
-        <v>1.043925472254111</v>
+        <v>1.017199579607652</v>
       </c>
       <c r="N11">
-        <v>1.01889594120133</v>
+        <v>0.9811071338727515</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.010426995955761</v>
+        <v>0.9464762787648596</v>
       </c>
       <c r="D12">
-        <v>1.038736584103404</v>
+        <v>1.01721911387157</v>
       </c>
       <c r="E12">
-        <v>1.012825747931026</v>
+        <v>0.9619275419830865</v>
       </c>
       <c r="F12">
-        <v>1.040140493796799</v>
+        <v>1.000995446562844</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034894902470563</v>
+        <v>1.047243122210124</v>
       </c>
       <c r="J12">
-        <v>1.017264678257183</v>
+        <v>0.9787322552462958</v>
       </c>
       <c r="K12">
-        <v>1.042338410531007</v>
+        <v>1.032023694591164</v>
       </c>
       <c r="L12">
-        <v>1.016527104193967</v>
+        <v>0.9778223993367905</v>
       </c>
       <c r="M12">
-        <v>1.043737084287566</v>
+        <v>1.016103600204848</v>
       </c>
       <c r="N12">
-        <v>1.018709310782197</v>
+        <v>0.9801221673109042</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.010486226775244</v>
+        <v>0.9468058243831654</v>
       </c>
       <c r="D13">
-        <v>1.038772660125743</v>
+        <v>1.017438085726593</v>
       </c>
       <c r="E13">
-        <v>1.012876023031964</v>
+        <v>0.9621881832411997</v>
       </c>
       <c r="F13">
-        <v>1.040190707843146</v>
+        <v>1.001280721061337</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034903489410374</v>
+        <v>1.047331990569306</v>
       </c>
       <c r="J13">
-        <v>1.01730465855364</v>
+        <v>0.9789438804874899</v>
       </c>
       <c r="K13">
-        <v>1.04236474139694</v>
+        <v>1.032195716475395</v>
       </c>
       <c r="L13">
-        <v>1.016567286830804</v>
+        <v>0.9780309011624893</v>
       </c>
       <c r="M13">
-        <v>1.043777515970451</v>
+        <v>1.016339473948449</v>
       </c>
       <c r="N13">
-        <v>1.018749347855262</v>
+        <v>0.980334093084215</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.010680299658511</v>
+        <v>0.9478817555245023</v>
       </c>
       <c r="D14">
-        <v>1.038890792321634</v>
+        <v>1.01815291461142</v>
       </c>
       <c r="E14">
-        <v>1.013040765001003</v>
+        <v>0.9630394866881384</v>
       </c>
       <c r="F14">
-        <v>1.040355173989527</v>
+        <v>1.00221210327369</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034931535079593</v>
+        <v>1.047621583315664</v>
       </c>
       <c r="J14">
-        <v>1.01743564086064</v>
+        <v>0.9796348128158061</v>
       </c>
       <c r="K14">
-        <v>1.042450921152694</v>
+        <v>1.032756956339926</v>
       </c>
       <c r="L14">
-        <v>1.016698940536606</v>
+        <v>0.9787117231787591</v>
       </c>
       <c r="M14">
-        <v>1.043909909886294</v>
+        <v>1.01710933706488</v>
       </c>
       <c r="N14">
-        <v>1.018880516172161</v>
+        <v>0.9810260066156882</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.010799873398642</v>
+        <v>0.9485417538256121</v>
       </c>
       <c r="D15">
-        <v>1.03896352112863</v>
+        <v>1.018591330288303</v>
       </c>
       <c r="E15">
-        <v>1.013142277053138</v>
+        <v>0.963561949661242</v>
       </c>
       <c r="F15">
-        <v>1.040456458078847</v>
+        <v>1.002783420333549</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034948745981392</v>
+        <v>1.047798799478282</v>
       </c>
       <c r="J15">
-        <v>1.017516331064394</v>
+        <v>0.9800586423243304</v>
       </c>
       <c r="K15">
-        <v>1.042503946391926</v>
+        <v>1.033100927040506</v>
       </c>
       <c r="L15">
-        <v>1.016780050851081</v>
+        <v>0.9791294174043583</v>
       </c>
       <c r="M15">
-        <v>1.043991418219265</v>
+        <v>1.017581398772294</v>
       </c>
       <c r="N15">
-        <v>1.018961320965259</v>
+        <v>0.9814504380107284</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.011495830331587</v>
+        <v>0.9523397951982506</v>
       </c>
       <c r="D16">
-        <v>1.039385972837828</v>
+        <v>1.021112882785681</v>
       </c>
       <c r="E16">
-        <v>1.013733259955474</v>
+        <v>0.9665723138825421</v>
       </c>
       <c r="F16">
-        <v>1.041045227298688</v>
+        <v>1.006070734170532</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035047867246486</v>
+        <v>1.048812029180975</v>
       </c>
       <c r="J16">
-        <v>1.017985795068798</v>
+        <v>0.9824975211724981</v>
       </c>
       <c r="K16">
-        <v>1.042811461273478</v>
+        <v>1.035075531248463</v>
       </c>
       <c r="L16">
-        <v>1.017252058348014</v>
+        <v>0.9815339922982552</v>
       </c>
       <c r="M16">
-        <v>1.044464854928347</v>
+        <v>1.020294879690212</v>
       </c>
       <c r="N16">
-        <v>1.019431451662399</v>
+        <v>0.9838927803466037</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.011932374424469</v>
+        <v>0.9546851323363782</v>
       </c>
       <c r="D17">
-        <v>1.039650205704154</v>
+        <v>1.022668536324728</v>
       </c>
       <c r="E17">
-        <v>1.014104090378024</v>
+        <v>0.9684344793028041</v>
       </c>
       <c r="F17">
-        <v>1.041413887016669</v>
+        <v>1.008100109271557</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035109114690814</v>
+        <v>1.049431798287568</v>
       </c>
       <c r="J17">
-        <v>1.018280112238991</v>
+        <v>0.9840034069889845</v>
       </c>
       <c r="K17">
-        <v>1.043003374146862</v>
+        <v>1.036290444764707</v>
       </c>
       <c r="L17">
-        <v>1.017548057465723</v>
+        <v>0.9830195677867336</v>
       </c>
       <c r="M17">
-        <v>1.044760967775536</v>
+        <v>1.021967589340811</v>
       </c>
       <c r="N17">
-        <v>1.019726186796731</v>
+        <v>0.9854008046936774</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.012186999506456</v>
+        <v>0.956040217374146</v>
       </c>
       <c r="D18">
-        <v>1.039804053890893</v>
+        <v>1.023566750560648</v>
       </c>
       <c r="E18">
-        <v>1.014320433674561</v>
+        <v>0.9695115246981021</v>
       </c>
       <c r="F18">
-        <v>1.041628681901487</v>
+        <v>1.009272340742651</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035144504306636</v>
+        <v>1.049787705780637</v>
       </c>
       <c r="J18">
-        <v>1.018451723029651</v>
+        <v>0.9848733960590881</v>
       </c>
       <c r="K18">
-        <v>1.043114958944169</v>
+        <v>1.036990723312941</v>
       </c>
       <c r="L18">
-        <v>1.017720680448554</v>
+        <v>0.9838781337226956</v>
       </c>
       <c r="M18">
-        <v>1.044933374525994</v>
+        <v>1.022932918197949</v>
       </c>
       <c r="N18">
-        <v>1.019898041294399</v>
+        <v>0.9862720292480495</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.012273819486611</v>
+        <v>0.9565001176561593</v>
       </c>
       <c r="D19">
-        <v>1.039856465559965</v>
+        <v>1.023871482427787</v>
       </c>
       <c r="E19">
-        <v>1.014394208647224</v>
+        <v>0.9698772493646816</v>
       </c>
       <c r="F19">
-        <v>1.041701880987541</v>
+        <v>1.009670124039841</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035156514404632</v>
+        <v>1.049908121639401</v>
       </c>
       <c r="J19">
-        <v>1.018510227802512</v>
+        <v>0.9851686446598624</v>
       </c>
       <c r="K19">
-        <v>1.043152946264847</v>
+        <v>1.037228098923352</v>
       </c>
       <c r="L19">
-        <v>1.01777953563231</v>
+        <v>0.9841695581071137</v>
       </c>
       <c r="M19">
-        <v>1.044992108007026</v>
+        <v>1.023260340911588</v>
       </c>
       <c r="N19">
-        <v>1.019956629150747</v>
+        <v>0.9865676971357024</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.011885537765719</v>
+        <v>0.9544348451180914</v>
       </c>
       <c r="D20">
-        <v>1.039621884386461</v>
+        <v>1.022502582885939</v>
       </c>
       <c r="E20">
-        <v>1.014064299213926</v>
+        <v>0.9682356369666403</v>
       </c>
       <c r="F20">
-        <v>1.041374357936451</v>
+        <v>1.00788356949358</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035102578061837</v>
+        <v>1.049365883711749</v>
       </c>
       <c r="J20">
-        <v>1.018248540941755</v>
+        <v>0.9838427111275224</v>
       </c>
       <c r="K20">
-        <v>1.042982820393501</v>
+        <v>1.036160964761054</v>
       </c>
       <c r="L20">
-        <v>1.01751630248984</v>
+        <v>0.9828610069677097</v>
       </c>
       <c r="M20">
-        <v>1.044729229814383</v>
+        <v>1.021789197975375</v>
       </c>
       <c r="N20">
-        <v>1.019694570664632</v>
+        <v>0.9852398806256599</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.010623150235381</v>
+        <v>0.9475655313460016</v>
       </c>
       <c r="D21">
-        <v>1.038856017068035</v>
+        <v>1.01794283619026</v>
       </c>
       <c r="E21">
-        <v>1.012992250704301</v>
+        <v>0.9627892286094736</v>
       </c>
       <c r="F21">
-        <v>1.040306753000278</v>
+        <v>1.001938365057756</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034923290693576</v>
+        <v>1.04753655846934</v>
       </c>
       <c r="J21">
-        <v>1.017397072402693</v>
+        <v>0.9794317430497506</v>
       </c>
       <c r="K21">
-        <v>1.042425558557925</v>
+        <v>1.032592067048815</v>
       </c>
       <c r="L21">
-        <v>1.016660173026744</v>
+        <v>0.9785116109900214</v>
       </c>
       <c r="M21">
-        <v>1.043870936493513</v>
+        <v>1.016883107338864</v>
       </c>
       <c r="N21">
-        <v>1.018841892942581</v>
+        <v>0.9808226484672722</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.009829395746507</v>
+        <v>0.9431202492644899</v>
       </c>
       <c r="D22">
-        <v>1.038372024779683</v>
+        <v>1.014988557796175</v>
       </c>
       <c r="E22">
-        <v>1.01231860818597</v>
+        <v>0.9592759812851246</v>
       </c>
       <c r="F22">
-        <v>1.039633370036965</v>
+        <v>0.9980903318363681</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034807553897528</v>
+        <v>1.046333752956801</v>
       </c>
       <c r="J22">
-        <v>1.016861182732721</v>
+        <v>0.9765771300212844</v>
       </c>
       <c r="K22">
-        <v>1.04207199952811</v>
+        <v>1.030268823549992</v>
       </c>
       <c r="L22">
-        <v>1.016121633957894</v>
+        <v>0.9756997857470728</v>
       </c>
       <c r="M22">
-        <v>1.04332850117722</v>
+        <v>1.013699714788818</v>
       </c>
       <c r="N22">
-        <v>1.01830524224781</v>
+        <v>0.9779639815608772</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.01025018432808</v>
+        <v>0.9454892566993769</v>
       </c>
       <c r="D23">
-        <v>1.038628831023549</v>
+        <v>1.016563201468704</v>
       </c>
       <c r="E23">
-        <v>1.012675681263341</v>
+        <v>0.9611471854156635</v>
       </c>
       <c r="F23">
-        <v>1.039990545325519</v>
+        <v>1.000141020854559</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034869193346684</v>
+        <v>1.046976486601052</v>
       </c>
       <c r="J23">
-        <v>1.017145319051569</v>
+        <v>0.9780984172662515</v>
       </c>
       <c r="K23">
-        <v>1.042259729446253</v>
+        <v>1.031508143735455</v>
       </c>
       <c r="L23">
-        <v>1.016407148099718</v>
+        <v>0.977197990748394</v>
       </c>
       <c r="M23">
-        <v>1.043616320679596</v>
+        <v>1.015396937877191</v>
       </c>
       <c r="N23">
-        <v>1.018589782072821</v>
+        <v>0.9794874292082261</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.01190670124677</v>
+        <v>0.9545479789306242</v>
       </c>
       <c r="D24">
-        <v>1.039634682418583</v>
+        <v>1.022577598396475</v>
       </c>
       <c r="E24">
-        <v>1.014082278991466</v>
+        <v>0.968325513385688</v>
       </c>
       <c r="F24">
-        <v>1.041392220161782</v>
+        <v>1.007981449869508</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035105532718125</v>
+        <v>1.049395684932708</v>
       </c>
       <c r="J24">
-        <v>1.018262806835422</v>
+        <v>0.9839153484700962</v>
       </c>
       <c r="K24">
-        <v>1.042992108845935</v>
+        <v>1.036219496993811</v>
       </c>
       <c r="L24">
-        <v>1.017530651283789</v>
+        <v>0.9829326782704361</v>
       </c>
       <c r="M24">
-        <v>1.044743571793256</v>
+        <v>1.021869837231791</v>
       </c>
       <c r="N24">
-        <v>1.019708856817505</v>
+        <v>0.9853126211215917</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.013828855669083</v>
+        <v>0.9645576922372542</v>
       </c>
       <c r="D25">
-        <v>1.040791147712637</v>
+        <v>1.029199143373133</v>
       </c>
       <c r="E25">
-        <v>1.015716291050341</v>
+        <v>0.9763003651482123</v>
       </c>
       <c r="F25">
-        <v>1.043009441419247</v>
+        <v>1.016632718871885</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035366647194016</v>
+        <v>1.051984540703707</v>
       </c>
       <c r="J25">
-        <v>1.019557258608816</v>
+        <v>0.9903396732779688</v>
       </c>
       <c r="K25">
-        <v>1.043828073412688</v>
+        <v>1.041360480283095</v>
       </c>
       <c r="L25">
-        <v>1.018833304901897</v>
+        <v>0.9892780773159383</v>
       </c>
       <c r="M25">
-        <v>1.046039484524055</v>
+        <v>1.028978205865494</v>
       </c>
       <c r="N25">
-        <v>1.021005146860893</v>
+        <v>0.9917460692075717</v>
       </c>
     </row>
   </sheetData>
